--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Pros1-Mertk.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Pros1-Mertk.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.9794649118785</v>
+        <v>30.168014</v>
       </c>
       <c r="H2">
-        <v>29.9794649118785</v>
+        <v>90.504042</v>
       </c>
       <c r="I2">
-        <v>0.2354521083877472</v>
+        <v>0.2349227827725553</v>
       </c>
       <c r="J2">
-        <v>0.2354521083877472</v>
+        <v>0.2349227827725553</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.19575525224514</v>
+        <v>9.519603666666667</v>
       </c>
       <c r="N2">
-        <v>9.19575525224514</v>
+        <v>28.558811</v>
       </c>
       <c r="O2">
-        <v>0.1210961963815387</v>
+        <v>0.1143733649354437</v>
       </c>
       <c r="P2">
-        <v>0.1210961963815387</v>
+        <v>0.1143733649354437</v>
       </c>
       <c r="Q2">
-        <v>275.6838219229056</v>
+        <v>287.1875366904513</v>
       </c>
       <c r="R2">
-        <v>275.6838219229056</v>
+        <v>2584.687830214062</v>
       </c>
       <c r="S2">
-        <v>0.02851235475576996</v>
+        <v>0.02686890916569544</v>
       </c>
       <c r="T2">
-        <v>0.02851235475576996</v>
+        <v>0.02686890916569544</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.9794649118785</v>
+        <v>30.168014</v>
       </c>
       <c r="H3">
-        <v>29.9794649118785</v>
+        <v>90.504042</v>
       </c>
       <c r="I3">
-        <v>0.2354521083877472</v>
+        <v>0.2349227827725553</v>
       </c>
       <c r="J3">
-        <v>0.2354521083877472</v>
+        <v>0.2349227827725553</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.31139265031152</v>
+        <v>3.397950666666667</v>
       </c>
       <c r="N3">
-        <v>3.31139265031152</v>
+        <v>10.193852</v>
       </c>
       <c r="O3">
-        <v>0.04360675590845073</v>
+        <v>0.04082470922525111</v>
       </c>
       <c r="P3">
-        <v>0.04360675590845073</v>
+        <v>0.04082470922525111</v>
       </c>
       <c r="Q3">
-        <v>99.27377976946657</v>
+        <v>102.5094232833093</v>
       </c>
       <c r="R3">
-        <v>99.27377976946657</v>
+        <v>922.5848095497839</v>
       </c>
       <c r="S3">
-        <v>0.01026730261859458</v>
+        <v>0.009590654297076402</v>
       </c>
       <c r="T3">
-        <v>0.01026730261859458</v>
+        <v>0.009590654297076402</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.9794649118785</v>
+        <v>30.168014</v>
       </c>
       <c r="H4">
-        <v>29.9794649118785</v>
+        <v>90.504042</v>
       </c>
       <c r="I4">
-        <v>0.2354521083877472</v>
+        <v>0.2349227827725553</v>
       </c>
       <c r="J4">
-        <v>0.2354521083877472</v>
+        <v>0.2349227827725553</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>35.0294731938674</v>
+        <v>35.04087533333333</v>
       </c>
       <c r="N4">
-        <v>35.0294731938674</v>
+        <v>105.122626</v>
       </c>
       <c r="O4">
-        <v>0.4612928300794809</v>
+        <v>0.4209989157626403</v>
       </c>
       <c r="P4">
-        <v>0.4612928300794809</v>
+        <v>0.4209989157626403</v>
       </c>
       <c r="Q4">
-        <v>1050.164862497136</v>
+        <v>1057.113617628255</v>
       </c>
       <c r="R4">
-        <v>1050.164862497136</v>
+        <v>9514.022558654291</v>
       </c>
       <c r="S4">
-        <v>0.1086123694263646</v>
+        <v>0.09890223683518805</v>
       </c>
       <c r="T4">
-        <v>0.1086123694263646</v>
+        <v>0.09890223683518806</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.9794649118785</v>
+        <v>30.168014</v>
       </c>
       <c r="H5">
-        <v>29.9794649118785</v>
+        <v>90.504042</v>
       </c>
       <c r="I5">
-        <v>0.2354521083877472</v>
+        <v>0.2349227827725553</v>
       </c>
       <c r="J5">
-        <v>0.2354521083877472</v>
+        <v>0.2349227827725553</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.6057880037372</v>
+        <v>34.43746266666667</v>
       </c>
       <c r="N5">
-        <v>27.6057880037372</v>
+        <v>103.312388</v>
       </c>
       <c r="O5">
-        <v>0.3635325031678613</v>
+        <v>0.4137492087845029</v>
       </c>
       <c r="P5">
-        <v>0.3635325031678613</v>
+        <v>0.4137492087845028</v>
       </c>
       <c r="Q5">
-        <v>827.6067528227958</v>
+        <v>1038.909855852477</v>
       </c>
       <c r="R5">
-        <v>827.6067528227958</v>
+        <v>9350.188702672296</v>
       </c>
       <c r="S5">
-        <v>0.08559449433834834</v>
+        <v>0.09719911549759841</v>
       </c>
       <c r="T5">
-        <v>0.08559449433834834</v>
+        <v>0.09719911549759841</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.9794649118785</v>
+        <v>30.168014</v>
       </c>
       <c r="H6">
-        <v>29.9794649118785</v>
+        <v>90.504042</v>
       </c>
       <c r="I6">
-        <v>0.2354521083877472</v>
+        <v>0.2349227827725553</v>
       </c>
       <c r="J6">
-        <v>0.2354521083877472</v>
+        <v>0.2349227827725553</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.795196927298164</v>
+        <v>0.836805</v>
       </c>
       <c r="N6">
-        <v>0.795196927298164</v>
+        <v>2.510415</v>
       </c>
       <c r="O6">
-        <v>0.01047171446266843</v>
+        <v>0.01005380129216206</v>
       </c>
       <c r="P6">
-        <v>0.01047171446266843</v>
+        <v>0.01005380129216206</v>
       </c>
       <c r="Q6">
-        <v>23.83957837996891</v>
+        <v>25.24474495527</v>
       </c>
       <c r="R6">
-        <v>23.83957837996891</v>
+        <v>227.20270459743</v>
       </c>
       <c r="S6">
-        <v>0.002465587248669747</v>
+        <v>0.002361866976997023</v>
       </c>
       <c r="T6">
-        <v>0.002465587248669747</v>
+        <v>0.002361866976997023</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>65.67807409168709</v>
+        <v>65.93392299999999</v>
       </c>
       <c r="H7">
-        <v>65.67807409168709</v>
+        <v>197.801769</v>
       </c>
       <c r="I7">
-        <v>0.5158211150595693</v>
+        <v>0.5134372010789768</v>
       </c>
       <c r="J7">
-        <v>0.5158211150595693</v>
+        <v>0.5134372010789768</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.19575525224514</v>
+        <v>9.519603666666667</v>
       </c>
       <c r="N7">
-        <v>9.19575525224514</v>
+        <v>28.558811</v>
       </c>
       <c r="O7">
-        <v>0.1210961963815387</v>
+        <v>0.1143733649354437</v>
       </c>
       <c r="P7">
-        <v>0.1210961963815387</v>
+        <v>0.1143733649354437</v>
       </c>
       <c r="Q7">
-        <v>603.9594947859771</v>
+        <v>627.6648151485176</v>
       </c>
       <c r="R7">
-        <v>603.9594947859771</v>
+        <v>5648.983336336658</v>
       </c>
       <c r="S7">
-        <v>0.06246397504699785</v>
+        <v>0.05872354037043861</v>
       </c>
       <c r="T7">
-        <v>0.06246397504699785</v>
+        <v>0.05872354037043861</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>65.67807409168709</v>
+        <v>65.93392299999999</v>
       </c>
       <c r="H8">
-        <v>65.67807409168709</v>
+        <v>197.801769</v>
       </c>
       <c r="I8">
-        <v>0.5158211150595693</v>
+        <v>0.5134372010789768</v>
       </c>
       <c r="J8">
-        <v>0.5158211150595693</v>
+        <v>0.5134372010789768</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.31139265031152</v>
+        <v>3.397950666666667</v>
       </c>
       <c r="N8">
-        <v>3.31139265031152</v>
+        <v>10.193852</v>
       </c>
       <c r="O8">
-        <v>0.04360675590845073</v>
+        <v>0.04082470922525111</v>
       </c>
       <c r="P8">
-        <v>0.04360675590845073</v>
+        <v>0.04082470922525111</v>
       </c>
       <c r="Q8">
-        <v>217.4858918338281</v>
+        <v>224.0402176137986</v>
       </c>
       <c r="R8">
-        <v>217.4858918338281</v>
+        <v>2016.361958524188</v>
       </c>
       <c r="S8">
-        <v>0.02249328545682752</v>
+        <v>0.02096092443947601</v>
       </c>
       <c r="T8">
-        <v>0.02249328545682752</v>
+        <v>0.02096092443947601</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>65.67807409168709</v>
+        <v>65.93392299999999</v>
       </c>
       <c r="H9">
-        <v>65.67807409168709</v>
+        <v>197.801769</v>
       </c>
       <c r="I9">
-        <v>0.5158211150595693</v>
+        <v>0.5134372010789768</v>
       </c>
       <c r="J9">
-        <v>0.5158211150595693</v>
+        <v>0.5134372010789768</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>35.0294731938674</v>
+        <v>35.04087533333333</v>
       </c>
       <c r="N9">
-        <v>35.0294731938674</v>
+        <v>105.122626</v>
       </c>
       <c r="O9">
-        <v>0.4612928300794809</v>
+        <v>0.4209989157626403</v>
       </c>
       <c r="P9">
-        <v>0.4612928300794809</v>
+        <v>0.4209989157626403</v>
       </c>
       <c r="Q9">
-        <v>2300.66833581959</v>
+        <v>2310.382376080599</v>
       </c>
       <c r="R9">
-        <v>2300.66833581959</v>
+        <v>20793.44138472539</v>
       </c>
       <c r="S9">
-        <v>0.2379445819805823</v>
+        <v>0.2161565049664539</v>
       </c>
       <c r="T9">
-        <v>0.2379445819805823</v>
+        <v>0.2161565049664539</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>65.67807409168709</v>
+        <v>65.93392299999999</v>
       </c>
       <c r="H10">
-        <v>65.67807409168709</v>
+        <v>197.801769</v>
       </c>
       <c r="I10">
-        <v>0.5158211150595693</v>
+        <v>0.5134372010789768</v>
       </c>
       <c r="J10">
-        <v>0.5158211150595693</v>
+        <v>0.5134372010789768</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.6057880037372</v>
+        <v>34.43746266666667</v>
       </c>
       <c r="N10">
-        <v>27.6057880037372</v>
+        <v>103.312388</v>
       </c>
       <c r="O10">
-        <v>0.3635325031678613</v>
+        <v>0.4137492087845029</v>
       </c>
       <c r="P10">
-        <v>0.3635325031678613</v>
+        <v>0.4137492087845028</v>
       </c>
       <c r="Q10">
-        <v>1813.094989868859</v>
+        <v>2270.597011779374</v>
       </c>
       <c r="R10">
-        <v>1813.094989868859</v>
+        <v>20435.37310601437</v>
       </c>
       <c r="S10">
-        <v>0.1875177411444426</v>
+        <v>0.2124342357069564</v>
       </c>
       <c r="T10">
-        <v>0.1875177411444426</v>
+        <v>0.2124342357069564</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>65.67807409168709</v>
+        <v>65.93392299999999</v>
       </c>
       <c r="H11">
-        <v>65.67807409168709</v>
+        <v>197.801769</v>
       </c>
       <c r="I11">
-        <v>0.5158211150595693</v>
+        <v>0.5134372010789768</v>
       </c>
       <c r="J11">
-        <v>0.5158211150595693</v>
+        <v>0.5134372010789768</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.795196927298164</v>
+        <v>0.836805</v>
       </c>
       <c r="N11">
-        <v>0.795196927298164</v>
+        <v>2.510415</v>
       </c>
       <c r="O11">
-        <v>0.01047171446266843</v>
+        <v>0.01005380129216206</v>
       </c>
       <c r="P11">
-        <v>0.01047171446266843</v>
+        <v>0.01005380129216206</v>
       </c>
       <c r="Q11">
-        <v>52.22700270857074</v>
+        <v>55.17383643601499</v>
       </c>
       <c r="R11">
-        <v>52.22700270857074</v>
+        <v>496.5645279241349</v>
       </c>
       <c r="S11">
-        <v>0.005401531430719047</v>
+        <v>0.005161995595651887</v>
       </c>
       <c r="T11">
-        <v>0.005401531430719047</v>
+        <v>0.005161995595651887</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.869504730580649</v>
+        <v>9.984842</v>
       </c>
       <c r="H12">
-        <v>9.869504730580649</v>
+        <v>29.954526</v>
       </c>
       <c r="I12">
-        <v>0.07751291440286252</v>
+        <v>0.07775344005688564</v>
       </c>
       <c r="J12">
-        <v>0.07751291440286252</v>
+        <v>0.07775344005688566</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.19575525224514</v>
+        <v>9.519603666666667</v>
       </c>
       <c r="N12">
-        <v>9.19575525224514</v>
+        <v>28.558811</v>
       </c>
       <c r="O12">
-        <v>0.1210961963815387</v>
+        <v>0.1143733649354437</v>
       </c>
       <c r="P12">
-        <v>0.1210961963815387</v>
+        <v>0.1143733649354437</v>
       </c>
       <c r="Q12">
-        <v>90.75754996329526</v>
+        <v>95.05173851428734</v>
       </c>
       <c r="R12">
-        <v>90.75754996329526</v>
+        <v>855.465646628586</v>
       </c>
       <c r="S12">
-        <v>0.009386519104634438</v>
+        <v>0.008892922574612329</v>
       </c>
       <c r="T12">
-        <v>0.009386519104634438</v>
+        <v>0.008892922574612331</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.869504730580649</v>
+        <v>9.984842</v>
       </c>
       <c r="H13">
-        <v>9.869504730580649</v>
+        <v>29.954526</v>
       </c>
       <c r="I13">
-        <v>0.07751291440286252</v>
+        <v>0.07775344005688564</v>
       </c>
       <c r="J13">
-        <v>0.07751291440286252</v>
+        <v>0.07775344005688566</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.31139265031152</v>
+        <v>3.397950666666667</v>
       </c>
       <c r="N13">
-        <v>3.31139265031152</v>
+        <v>10.193852</v>
       </c>
       <c r="O13">
-        <v>0.04360675590845073</v>
+        <v>0.04082470922525111</v>
       </c>
       <c r="P13">
-        <v>0.04360675590845073</v>
+        <v>0.04082470922525111</v>
       </c>
       <c r="Q13">
-        <v>32.68180542705954</v>
+        <v>33.92800053046133</v>
       </c>
       <c r="R13">
-        <v>32.68180542705954</v>
+        <v>305.352004774152</v>
       </c>
       <c r="S13">
-        <v>0.003380086738118261</v>
+        <v>0.003174261581585348</v>
       </c>
       <c r="T13">
-        <v>0.003380086738118261</v>
+        <v>0.003174261581585349</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.869504730580649</v>
+        <v>9.984842</v>
       </c>
       <c r="H14">
-        <v>9.869504730580649</v>
+        <v>29.954526</v>
       </c>
       <c r="I14">
-        <v>0.07751291440286252</v>
+        <v>0.07775344005688564</v>
       </c>
       <c r="J14">
-        <v>0.07751291440286252</v>
+        <v>0.07775344005688566</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>35.0294731938674</v>
+        <v>35.04087533333333</v>
       </c>
       <c r="N14">
-        <v>35.0294731938674</v>
+        <v>105.122626</v>
       </c>
       <c r="O14">
-        <v>0.4612928300794809</v>
+        <v>0.4209989157626403</v>
       </c>
       <c r="P14">
-        <v>0.4612928300794809</v>
+        <v>0.4209989157626403</v>
       </c>
       <c r="Q14">
-        <v>345.7235513966224</v>
+        <v>349.8776037450307</v>
       </c>
       <c r="R14">
-        <v>345.7235513966224</v>
+        <v>3148.898433705276</v>
       </c>
       <c r="S14">
-        <v>0.03575615165260501</v>
+        <v>0.0327341139607643</v>
       </c>
       <c r="T14">
-        <v>0.03575615165260501</v>
+        <v>0.0327341139607643</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.869504730580649</v>
+        <v>9.984842</v>
       </c>
       <c r="H15">
-        <v>9.869504730580649</v>
+        <v>29.954526</v>
       </c>
       <c r="I15">
-        <v>0.07751291440286252</v>
+        <v>0.07775344005688564</v>
       </c>
       <c r="J15">
-        <v>0.07751291440286252</v>
+        <v>0.07775344005688566</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.6057880037372</v>
+        <v>34.43746266666667</v>
       </c>
       <c r="N15">
-        <v>27.6057880037372</v>
+        <v>103.312388</v>
       </c>
       <c r="O15">
-        <v>0.3635325031678613</v>
+        <v>0.4137492087845029</v>
       </c>
       <c r="P15">
-        <v>0.3635325031678613</v>
+        <v>0.4137492087845028</v>
       </c>
       <c r="Q15">
-        <v>272.4554552942909</v>
+        <v>343.8526236075654</v>
       </c>
       <c r="R15">
-        <v>272.4554552942909</v>
+        <v>3094.673612468088</v>
       </c>
       <c r="S15">
-        <v>0.02817846380070878</v>
+        <v>0.03217042430380971</v>
       </c>
       <c r="T15">
-        <v>0.02817846380070878</v>
+        <v>0.03217042430380971</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.869504730580649</v>
+        <v>9.984842</v>
       </c>
       <c r="H16">
-        <v>9.869504730580649</v>
+        <v>29.954526</v>
       </c>
       <c r="I16">
-        <v>0.07751291440286252</v>
+        <v>0.07775344005688564</v>
       </c>
       <c r="J16">
-        <v>0.07751291440286252</v>
+        <v>0.07775344005688566</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.795196927298164</v>
+        <v>0.836805</v>
       </c>
       <c r="N16">
-        <v>0.795196927298164</v>
+        <v>2.510415</v>
       </c>
       <c r="O16">
-        <v>0.01047171446266843</v>
+        <v>0.01005380129216206</v>
       </c>
       <c r="P16">
-        <v>0.01047171446266843</v>
+        <v>0.01005380129216206</v>
       </c>
       <c r="Q16">
-        <v>7.848199835712427</v>
+        <v>8.35536570981</v>
       </c>
       <c r="R16">
-        <v>7.848199835712427</v>
+        <v>75.19829138829</v>
       </c>
       <c r="S16">
-        <v>0.0008116931067960354</v>
+        <v>0.0007817176361139619</v>
       </c>
       <c r="T16">
-        <v>0.0008116931067960354</v>
+        <v>0.000781717636113962</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.8642204396306</v>
+        <v>16.22962566666667</v>
       </c>
       <c r="H17">
-        <v>15.8642204396306</v>
+        <v>48.688877</v>
       </c>
       <c r="I17">
-        <v>0.1245940900352437</v>
+        <v>0.1263824932251166</v>
       </c>
       <c r="J17">
-        <v>0.1245940900352437</v>
+        <v>0.1263824932251166</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.19575525224514</v>
+        <v>9.519603666666667</v>
       </c>
       <c r="N17">
-        <v>9.19575525224514</v>
+        <v>28.558811</v>
       </c>
       <c r="O17">
-        <v>0.1210961963815387</v>
+        <v>0.1143733649354437</v>
       </c>
       <c r="P17">
-        <v>0.1210961963815387</v>
+        <v>0.1143733649354437</v>
       </c>
       <c r="Q17">
-        <v>145.8834884305078</v>
+        <v>154.4996040050275</v>
       </c>
       <c r="R17">
-        <v>145.8834884305078</v>
+        <v>1390.496436045247</v>
       </c>
       <c r="S17">
-        <v>0.01508787039488698</v>
+        <v>0.0144547910190875</v>
       </c>
       <c r="T17">
-        <v>0.01508787039488698</v>
+        <v>0.0144547910190875</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>15.8642204396306</v>
+        <v>16.22962566666667</v>
       </c>
       <c r="H18">
-        <v>15.8642204396306</v>
+        <v>48.688877</v>
       </c>
       <c r="I18">
-        <v>0.1245940900352437</v>
+        <v>0.1263824932251166</v>
       </c>
       <c r="J18">
-        <v>0.1245940900352437</v>
+        <v>0.1263824932251166</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.31139265031152</v>
+        <v>3.397950666666667</v>
       </c>
       <c r="N18">
-        <v>3.31139265031152</v>
+        <v>10.193852</v>
       </c>
       <c r="O18">
-        <v>0.04360675590845073</v>
+        <v>0.04082470922525111</v>
       </c>
       <c r="P18">
-        <v>0.04360675590845073</v>
+        <v>0.04082470922525111</v>
       </c>
       <c r="Q18">
-        <v>52.53266296671455</v>
+        <v>55.14746735380044</v>
       </c>
       <c r="R18">
-        <v>52.53266296671455</v>
+        <v>496.327206184204</v>
       </c>
       <c r="S18">
-        <v>0.005433144071802404</v>
+        <v>0.005159528537077652</v>
       </c>
       <c r="T18">
-        <v>0.005433144071802404</v>
+        <v>0.005159528537077652</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>15.8642204396306</v>
+        <v>16.22962566666667</v>
       </c>
       <c r="H19">
-        <v>15.8642204396306</v>
+        <v>48.688877</v>
       </c>
       <c r="I19">
-        <v>0.1245940900352437</v>
+        <v>0.1263824932251166</v>
       </c>
       <c r="J19">
-        <v>0.1245940900352437</v>
+        <v>0.1263824932251166</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>35.0294731938674</v>
+        <v>35.04087533333333</v>
       </c>
       <c r="N19">
-        <v>35.0294731938674</v>
+        <v>105.122626</v>
       </c>
       <c r="O19">
-        <v>0.4612928300794809</v>
+        <v>0.4209989157626403</v>
       </c>
       <c r="P19">
-        <v>0.4612928300794809</v>
+        <v>0.4209989157626403</v>
       </c>
       <c r="Q19">
-        <v>555.7152846316435</v>
+        <v>568.7002896923335</v>
       </c>
       <c r="R19">
-        <v>555.7152846316435</v>
+        <v>5118.302607231001</v>
       </c>
       <c r="S19">
-        <v>0.05747436040353521</v>
+        <v>0.0532068926191533</v>
       </c>
       <c r="T19">
-        <v>0.05747436040353521</v>
+        <v>0.0532068926191533</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.8642204396306</v>
+        <v>16.22962566666667</v>
       </c>
       <c r="H20">
-        <v>15.8642204396306</v>
+        <v>48.688877</v>
       </c>
       <c r="I20">
-        <v>0.1245940900352437</v>
+        <v>0.1263824932251166</v>
       </c>
       <c r="J20">
-        <v>0.1245940900352437</v>
+        <v>0.1263824932251166</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>27.6057880037372</v>
+        <v>34.43746266666667</v>
       </c>
       <c r="N20">
-        <v>27.6057880037372</v>
+        <v>103.312388</v>
       </c>
       <c r="O20">
-        <v>0.3635325031678613</v>
+        <v>0.4137492087845029</v>
       </c>
       <c r="P20">
-        <v>0.3635325031678613</v>
+        <v>0.4137492087845028</v>
       </c>
       <c r="Q20">
-        <v>437.9443063009969</v>
+        <v>558.9071279898085</v>
       </c>
       <c r="R20">
-        <v>437.9443063009969</v>
+        <v>5030.164151908276</v>
       </c>
       <c r="S20">
-        <v>0.04529400143043402</v>
+        <v>0.05229065657610478</v>
       </c>
       <c r="T20">
-        <v>0.04529400143043402</v>
+        <v>0.05229065657610477</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.8642204396306</v>
+        <v>16.22962566666667</v>
       </c>
       <c r="H21">
-        <v>15.8642204396306</v>
+        <v>48.688877</v>
       </c>
       <c r="I21">
-        <v>0.1245940900352437</v>
+        <v>0.1263824932251166</v>
       </c>
       <c r="J21">
-        <v>0.1245940900352437</v>
+        <v>0.1263824932251166</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.795196927298164</v>
+        <v>0.836805</v>
       </c>
       <c r="N21">
-        <v>0.795196927298164</v>
+        <v>2.510415</v>
       </c>
       <c r="O21">
-        <v>0.01047171446266843</v>
+        <v>0.01005380129216206</v>
       </c>
       <c r="P21">
-        <v>0.01047171446266843</v>
+        <v>0.01005380129216206</v>
       </c>
       <c r="Q21">
-        <v>12.61517934757498</v>
+        <v>13.581031905995</v>
       </c>
       <c r="R21">
-        <v>12.61517934757498</v>
+        <v>122.229287153955</v>
       </c>
       <c r="S21">
-        <v>0.001304713734585073</v>
+        <v>0.001270624473693339</v>
       </c>
       <c r="T21">
-        <v>0.001304713734585073</v>
+        <v>0.001270624473693339</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.93596647691549</v>
+        <v>6.100318666666666</v>
       </c>
       <c r="H22">
-        <v>5.93596647691549</v>
+        <v>18.300956</v>
       </c>
       <c r="I22">
-        <v>0.04661977211457723</v>
+        <v>0.04750408286646571</v>
       </c>
       <c r="J22">
-        <v>0.04661977211457723</v>
+        <v>0.04750408286646571</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.19575525224514</v>
+        <v>9.519603666666667</v>
       </c>
       <c r="N22">
-        <v>9.19575525224514</v>
+        <v>28.558811</v>
       </c>
       <c r="O22">
-        <v>0.1210961963815387</v>
+        <v>0.1143733649354437</v>
       </c>
       <c r="P22">
-        <v>0.1210961963815387</v>
+        <v>0.1143733649354437</v>
       </c>
       <c r="Q22">
-        <v>54.5856949072467</v>
+        <v>58.07261594703511</v>
       </c>
       <c r="R22">
-        <v>54.5856949072467</v>
+        <v>522.653543523316</v>
       </c>
       <c r="S22">
-        <v>0.005645477079249424</v>
+        <v>0.005433201805609841</v>
       </c>
       <c r="T22">
-        <v>0.005645477079249424</v>
+        <v>0.005433201805609842</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.93596647691549</v>
+        <v>6.100318666666666</v>
       </c>
       <c r="H23">
-        <v>5.93596647691549</v>
+        <v>18.300956</v>
       </c>
       <c r="I23">
-        <v>0.04661977211457723</v>
+        <v>0.04750408286646571</v>
       </c>
       <c r="J23">
-        <v>0.04661977211457723</v>
+        <v>0.04750408286646571</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.31139265031152</v>
+        <v>3.397950666666667</v>
       </c>
       <c r="N23">
-        <v>3.31139265031152</v>
+        <v>10.193852</v>
       </c>
       <c r="O23">
-        <v>0.04360675590845073</v>
+        <v>0.04082470922525111</v>
       </c>
       <c r="P23">
-        <v>0.04360675590845073</v>
+        <v>0.04082470922525111</v>
       </c>
       <c r="Q23">
-        <v>19.65631576415352</v>
+        <v>20.72858188027911</v>
       </c>
       <c r="R23">
-        <v>19.65631576415352</v>
+        <v>186.557236922512</v>
       </c>
       <c r="S23">
-        <v>0.002032937023107967</v>
+        <v>0.001939340370035696</v>
       </c>
       <c r="T23">
-        <v>0.002032937023107967</v>
+        <v>0.001939340370035696</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.93596647691549</v>
+        <v>6.100318666666666</v>
       </c>
       <c r="H24">
-        <v>5.93596647691549</v>
+        <v>18.300956</v>
       </c>
       <c r="I24">
-        <v>0.04661977211457723</v>
+        <v>0.04750408286646571</v>
       </c>
       <c r="J24">
-        <v>0.04661977211457723</v>
+        <v>0.04750408286646571</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>35.0294731938674</v>
+        <v>35.04087533333333</v>
       </c>
       <c r="N24">
-        <v>35.0294731938674</v>
+        <v>105.122626</v>
       </c>
       <c r="O24">
-        <v>0.4612928300794809</v>
+        <v>0.4209989157626403</v>
       </c>
       <c r="P24">
-        <v>0.4612928300794809</v>
+        <v>0.4209989157626403</v>
       </c>
       <c r="Q24">
-        <v>207.9337785828067</v>
+        <v>213.7605058922729</v>
       </c>
       <c r="R24">
-        <v>207.9337785828067</v>
+        <v>1923.844553030456</v>
       </c>
       <c r="S24">
-        <v>0.0215053666163938</v>
+        <v>0.01999916738108068</v>
       </c>
       <c r="T24">
-        <v>0.0215053666163938</v>
+        <v>0.01999916738108068</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.93596647691549</v>
+        <v>6.100318666666666</v>
       </c>
       <c r="H25">
-        <v>5.93596647691549</v>
+        <v>18.300956</v>
       </c>
       <c r="I25">
-        <v>0.04661977211457723</v>
+        <v>0.04750408286646571</v>
       </c>
       <c r="J25">
-        <v>0.04661977211457723</v>
+        <v>0.04750408286646571</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>27.6057880037372</v>
+        <v>34.43746266666667</v>
       </c>
       <c r="N25">
-        <v>27.6057880037372</v>
+        <v>103.312388</v>
       </c>
       <c r="O25">
-        <v>0.3635325031678613</v>
+        <v>0.4137492087845029</v>
       </c>
       <c r="P25">
-        <v>0.3635325031678613</v>
+        <v>0.4137492087845028</v>
       </c>
       <c r="Q25">
-        <v>163.8670321590198</v>
+        <v>210.0794963381031</v>
       </c>
       <c r="R25">
-        <v>163.8670321590198</v>
+        <v>1890.715467042928</v>
       </c>
       <c r="S25">
-        <v>0.01694780245392752</v>
+        <v>0.01965477670003365</v>
       </c>
       <c r="T25">
-        <v>0.01694780245392752</v>
+        <v>0.01965477670003365</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.93596647691549</v>
+        <v>6.100318666666666</v>
       </c>
       <c r="H26">
-        <v>5.93596647691549</v>
+        <v>18.300956</v>
       </c>
       <c r="I26">
-        <v>0.04661977211457723</v>
+        <v>0.04750408286646571</v>
       </c>
       <c r="J26">
-        <v>0.04661977211457723</v>
+        <v>0.04750408286646571</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.795196927298164</v>
+        <v>0.836805</v>
       </c>
       <c r="N26">
-        <v>0.795196927298164</v>
+        <v>2.510415</v>
       </c>
       <c r="O26">
-        <v>0.01047171446266843</v>
+        <v>0.01005380129216206</v>
       </c>
       <c r="P26">
-        <v>0.01047171446266843</v>
+        <v>0.01005380129216206</v>
       </c>
       <c r="Q26">
-        <v>4.720262302988106</v>
+        <v>5.10477716186</v>
       </c>
       <c r="R26">
-        <v>4.720262302988106</v>
+        <v>45.94299445674</v>
       </c>
       <c r="S26">
-        <v>0.0004881889418985246</v>
+        <v>0.0004775966097058463</v>
       </c>
       <c r="T26">
-        <v>0.0004881889418985246</v>
+        <v>0.0004775966097058464</v>
       </c>
     </row>
   </sheetData>
